--- a/~2022-10-31 1인프로젝트/테스트/테스트 설계서-MVP최동영.xlsx
+++ b/~2022-10-31 1인프로젝트/테스트/테스트 설계서-MVP최동영.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D448E2CE-39DE-4ACF-B4DC-A25C24802942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88570C0-7A53-446C-8625-40C593F4C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web User" sheetId="2" r:id="rId1"/>
@@ -946,6 +946,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -955,10 +967,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,18 +998,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489E677E-DD7B-4567-BAEC-953E1182C438}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" activeCellId="2" sqref="I1:I1048576 H1:H1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1349,20 +1349,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="str">
+      <c r="A1" s="34" t="str">
         <f>CONCATENATE([1]표지!A4," ",[1]표지!A2)</f>
         <v>MVP Board Sanity Checklist</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1534,70 +1534,70 @@
     </row>
     <row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="34" t="s">
+      <c r="M9" s="39"/>
+      <c r="N9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
@@ -1612,9 +1612,9 @@
       <c r="F11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="15" t="s">
         <v>30</v>
       </c>
@@ -1651,9 +1651,9 @@
       <c r="F12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="15" t="s">
         <v>31</v>
       </c>
@@ -1690,9 +1690,9 @@
       <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="15" t="s">
         <v>32</v>
       </c>
@@ -1729,9 +1729,9 @@
       <c r="F14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="15" t="s">
         <v>102</v>
       </c>
@@ -1768,9 +1768,9 @@
       <c r="F15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1807,9 +1807,9 @@
       <c r="F16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="15" t="s">
         <v>40</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>108</v>
       </c>
       <c r="P16" s="26"/>
-      <c r="Q16" s="48" t="s">
+      <c r="Q16" s="31" t="s">
         <v>109</v>
       </c>
       <c r="R16" s="19" t="s">
@@ -1850,9 +1850,9 @@
       <c r="F17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1889,9 +1889,9 @@
       <c r="F18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="15" t="s">
         <v>46</v>
       </c>
@@ -1928,9 +1928,9 @@
       <c r="F19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="15" t="s">
         <v>49</v>
       </c>
@@ -1967,9 +1967,9 @@
       <c r="F20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="15" t="s">
         <v>52</v>
       </c>
@@ -2006,9 +2006,9 @@
       <c r="F21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="15" t="s">
         <v>57</v>
       </c>
@@ -2045,9 +2045,9 @@
       <c r="F22" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="15" t="s">
         <v>60</v>
       </c>
@@ -2084,9 +2084,9 @@
       <c r="F23" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="15" t="s">
         <v>62</v>
       </c>
@@ -2123,9 +2123,9 @@
       <c r="F24" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="15" t="s">
         <v>63</v>
       </c>
@@ -2162,9 +2162,9 @@
       <c r="F25" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="15" t="s">
         <v>66</v>
       </c>
@@ -2201,9 +2201,9 @@
       <c r="F26" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="15" t="s">
         <v>70</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>106</v>
       </c>
       <c r="P26" s="26"/>
-      <c r="Q26" s="48" t="s">
+      <c r="Q26" s="31" t="s">
         <v>110</v>
       </c>
       <c r="R26" s="19" t="s">
@@ -2244,9 +2244,9 @@
       <c r="F27" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="15" t="s">
         <v>74</v>
       </c>
@@ -2283,9 +2283,9 @@
       <c r="F28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="15" t="s">
         <v>77</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>107</v>
       </c>
       <c r="P28" s="26"/>
-      <c r="Q28" s="48" t="s">
+      <c r="Q28" s="31" t="s">
         <v>104</v>
       </c>
       <c r="R28" s="19" t="s">
@@ -2326,9 +2326,9 @@
       <c r="F29" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="15" t="s">
         <v>94</v>
       </c>
@@ -2365,9 +2365,9 @@
       <c r="F30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="15" t="s">
         <v>80</v>
       </c>
@@ -2404,9 +2404,9 @@
       <c r="F31" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="15" t="s">
         <v>82</v>
       </c>
@@ -2443,9 +2443,9 @@
       <c r="F32" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="15" t="s">
         <v>79</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>106</v>
       </c>
       <c r="P32" s="26"/>
-      <c r="Q32" s="48" t="s">
+      <c r="Q32" s="31" t="s">
         <v>110</v>
       </c>
       <c r="R32" s="19" t="s">
@@ -2475,16 +2475,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G27:I27"/>
@@ -2500,17 +2495,22 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="N9:N10"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
